--- a/content.xlsx
+++ b/content.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t>term</t>
   </si>
@@ -37,7 +37,7 @@
     <t>unit</t>
   </si>
   <si>
-    <t>1_A</t>
+    <t>1A</t>
   </si>
   <si>
     <t>Unit 1 School</t>
@@ -58,7 +58,7 @@
     <t>Unit 6 Fruit</t>
   </si>
   <si>
-    <t>1_B</t>
+    <t>1B</t>
   </si>
   <si>
     <t>Unit 1 Classroom</t>
@@ -79,7 +79,7 @@
     <t>Unit 6 Clothes</t>
   </si>
   <si>
-    <t>2_A</t>
+    <t>2A</t>
   </si>
   <si>
     <t>Unit 1 My Family</t>
@@ -100,7 +100,7 @@
     <t>Unit 6 Happy Holidays</t>
   </si>
   <si>
-    <t>2_B</t>
+    <t>2B</t>
   </si>
   <si>
     <t>Unit 1 Playtime</t>
@@ -121,7 +121,7 @@
     <t>Unit 6 My Week</t>
   </si>
   <si>
-    <t>3_A</t>
+    <t>3A</t>
   </si>
   <si>
     <t>Unit 1 Myself</t>
@@ -142,7 +142,7 @@
     <t>Unit 6 Birthdays</t>
   </si>
   <si>
-    <t>3_B</t>
+    <t>3B</t>
   </si>
   <si>
     <t>Unit 1 School Subjects</t>
@@ -163,7 +163,7 @@
     <t>Unit 6 My Home</t>
   </si>
   <si>
-    <t>4_A</t>
+    <t>4A</t>
   </si>
   <si>
     <t>Unit 1 Sports and Games</t>
@@ -184,7 +184,7 @@
     <t>Unit 6 Jobs</t>
   </si>
   <si>
-    <t>4_B</t>
+    <t>4B</t>
   </si>
   <si>
     <t>Unit 1 My Neighbourhoods</t>
@@ -205,7 +205,7 @@
     <t>Unit 6 Countries</t>
   </si>
   <si>
-    <t>5_A</t>
+    <t>5A</t>
   </si>
   <si>
     <t>Unit 1 Classmates</t>
@@ -223,7 +223,7 @@
     <t>Unit 6 Chores</t>
   </si>
   <si>
-    <t>5_B</t>
+    <t>5B</t>
   </si>
   <si>
     <t>Unit 1 Keeping Healthy</t>
@@ -244,7 +244,7 @@
     <t>Unit 6 Growing Up</t>
   </si>
   <si>
-    <t>6_A</t>
+    <t>6A</t>
   </si>
   <si>
     <t>Unit 1 In China</t>
@@ -265,7 +265,7 @@
     <t>Unit 6 Winter Vacation</t>
   </si>
   <si>
-    <t>6_B</t>
+    <t>6B</t>
   </si>
   <si>
     <t>Unit 1 Visiting Canada</t>
@@ -286,7 +286,7 @@
     <t>Unit 6 Summer Vacatioon</t>
   </si>
   <si>
-    <t>7_A</t>
+    <t>7A</t>
   </si>
   <si>
     <t>Unit 1 My name's Gina.</t>
@@ -316,7 +316,7 @@
     <t>Unit 9 My favorite subject is science.</t>
   </si>
   <si>
-    <t>7_B</t>
+    <t>7B</t>
   </si>
   <si>
     <t>Unit 1 Can you play the guitar?</t>
@@ -355,7 +355,7 @@
     <t>Unit 12 What did you do last week?</t>
   </si>
   <si>
-    <t>8_A</t>
+    <t>8A</t>
   </si>
   <si>
     <t>Unit 1 Where did you go on vacation?</t>
@@ -388,7 +388,7 @@
     <t>Unit 10 If you go to the party, you'll have a great time!</t>
   </si>
   <si>
-    <t>8_B</t>
+    <t>8B</t>
   </si>
   <si>
     <t>Unit 1 What's the matter?</t>
@@ -421,7 +421,7 @@
     <t>Unit 10 I've had this bike for three years.</t>
   </si>
   <si>
-    <t>9_C</t>
+    <t>9C</t>
   </si>
   <si>
     <t>Unit 1 How can we become good learners?</t>
@@ -464,6 +464,132 @@
   </si>
   <si>
     <t>Unit 14 I remember meeting all of you in Grade 7.</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Unit 1 Teenage Life</t>
+  </si>
+  <si>
+    <t>Unit 2 Travelling Around</t>
+  </si>
+  <si>
+    <t>Unit 3 Sports and Fitness</t>
+  </si>
+  <si>
+    <t>Unit 4 Natural Disasters</t>
+  </si>
+  <si>
+    <t>Unit 5 Languages Around the World</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Unit 1 Cultural Heritage</t>
+  </si>
+  <si>
+    <t>Unit 2 Wildlife Protection</t>
+  </si>
+  <si>
+    <t>Unit 3 The Internet</t>
+  </si>
+  <si>
+    <t>Unit 4 History and Traditions</t>
+  </si>
+  <si>
+    <t>Unit 5 Music</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Unit 1 Festivals and Celebrations</t>
+  </si>
+  <si>
+    <t>Unit 2 Morals and Virtues</t>
+  </si>
+  <si>
+    <t>Unit 3 Diverse Cultures</t>
+  </si>
+  <si>
+    <t>Unit 4 Space Exploration</t>
+  </si>
+  <si>
+    <t>Unit 5 The Value of Money</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Unit 1 People of Achievement</t>
+  </si>
+  <si>
+    <t>Unit 2 Looking into the Future</t>
+  </si>
+  <si>
+    <t>Unit 3 Fascinating Parks</t>
+  </si>
+  <si>
+    <t>Unit 4 Body Language</t>
+  </si>
+  <si>
+    <t>Unit 5 Working the Land</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Unit 1 Science and Scientists</t>
+  </si>
+  <si>
+    <t>Unit 2 Bridging Cultures</t>
+  </si>
+  <si>
+    <t>Unit 3 Food and Culture</t>
+  </si>
+  <si>
+    <t>Unit 4 Journey Across a Vast Land</t>
+  </si>
+  <si>
+    <t>Unit 5 First Aid</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Unit 1 Art</t>
+  </si>
+  <si>
+    <t>Unit 2 Healthy Lifestyle</t>
+  </si>
+  <si>
+    <t>Unit 3 Environmental Protection</t>
+  </si>
+  <si>
+    <t>Unit 4 Adversity and Courage</t>
+  </si>
+  <si>
+    <t>Unit 5 Poems</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Unit 1 Science Fiction</t>
+  </si>
+  <si>
+    <t>Unit 2 Iconic Attractions</t>
+  </si>
+  <si>
+    <t>Unit 3 Sea Exploration</t>
+  </si>
+  <si>
+    <t>Unit 4 Sharing</t>
+  </si>
+  <si>
+    <t>Unit 5 Launching Your Career</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1211,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1403,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2145,6 +2275,221 @@
       <c r="B146" s="1" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
